--- a/time-manage-8-2022.xlsx
+++ b/time-manage-8-2022.xlsx
@@ -494,7 +494,7 @@
   <dimension ref="A5:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -793,6 +793,9 @@
       <c r="D16">
         <v>0</v>
       </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
       <c r="W16">
         <f>SUM(B16:T16)</f>
         <v>0</v>
@@ -809,6 +812,9 @@
         <v>0</v>
       </c>
       <c r="E17" s="5"/>
+      <c r="F17">
+        <v>0</v>
+      </c>
       <c r="W17">
         <f t="shared" ref="W17:W19" si="1">SUM(B17:T17)</f>
         <v>0</v>
@@ -821,6 +827,9 @@
       <c r="B18">
         <v>0</v>
       </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
       <c r="W18">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -831,6 +840,9 @@
         <v>4</v>
       </c>
       <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <v>0</v>
       </c>
       <c r="W19">

--- a/time-manage-8-2022.xlsx
+++ b/time-manage-8-2022.xlsx
@@ -494,7 +494,7 @@
   <dimension ref="A5:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -891,6 +891,9 @@
     <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>5</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
       </c>
       <c r="W22">
         <f>SUM(B22:V22)</f>
